--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F398E4-285D-4DD3-86CA-3045332F0EAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B7638-A5CA-4D5B-B309-90E9065BB7B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="文本表" sheetId="27" r:id="rId3"/>
     <sheet name="帮助表" sheetId="28" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="257">
   <si>
     <t>sheet名</t>
   </si>
@@ -909,6 +909,22 @@
   </si>
   <si>
     <t>洗练材料不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人等级不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需寄灵人%s级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1149,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1159,6 +1175,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="13" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="14" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1608,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1904,19 +1935,39 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="文本表" sheetId="27" r:id="rId3"/>
     <sheet name="国战文本表" sheetId="29" r:id="rId4"/>
     <sheet name="帮助表" sheetId="28" r:id="rId5"/>
+    <sheet name="服务端信息" sheetId="30" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="436">
   <si>
     <t>sheet名</t>
   </si>
@@ -901,12 +902,547 @@
     <t>SingleKey</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>cacodemon_hasKilled</t>
+  </si>
+  <si>
+    <t>cacodemon_isFighting</t>
+  </si>
+  <si>
+    <t>cacodemon_null</t>
+  </si>
+  <si>
+    <t>已超出当前段位</t>
+  </si>
+  <si>
+    <t>arena_out_score</t>
+  </si>
+  <si>
+    <t>好友在黑名单中</t>
+  </si>
+  <si>
+    <t>friend_black</t>
+  </si>
+  <si>
+    <t>已经是好友</t>
+  </si>
+  <si>
+    <t>be_friend</t>
+  </si>
+  <si>
+    <t>好友达到上限</t>
+  </si>
+  <si>
+    <t>friend_num_limit</t>
+  </si>
+  <si>
+    <t>敏感字</t>
+  </si>
+  <si>
+    <t>dirty_words</t>
+  </si>
+  <si>
+    <t>不可领奖</t>
+  </si>
+  <si>
+    <t>cant_reward</t>
+  </si>
+  <si>
+    <t>达到最大购买限制</t>
+  </si>
+  <si>
+    <t>times_limit</t>
+  </si>
+  <si>
+    <t>不能进入战斗</t>
+  </si>
+  <si>
+    <t>cant_fight</t>
+  </si>
+  <si>
+    <t>已经领取奖励</t>
+  </si>
+  <si>
+    <t>has_reward</t>
+  </si>
+  <si>
+    <t>关卡未开启</t>
+  </si>
+  <si>
+    <t>reed_end</t>
+  </si>
+  <si>
+    <t>错误的芦花古楼ID</t>
+  </si>
+  <si>
+    <t>reed_id_error</t>
+  </si>
+  <si>
+    <t>剧情关卡未开始</t>
+  </si>
+  <si>
+    <t>chapter_story_not_start</t>
+  </si>
+  <si>
+    <t>当前关卡不是剧情关卡</t>
+  </si>
+  <si>
+    <t>level_is_not_story</t>
+  </si>
+  <si>
+    <t>当前关卡已过关</t>
+  </si>
+  <si>
+    <t>level_has_pass</t>
+  </si>
+  <si>
+    <t>boss未开启</t>
+  </si>
+  <si>
+    <t>solo_boss_not_open</t>
+  </si>
+  <si>
+    <t>上一关未通关</t>
+  </si>
+  <si>
+    <t>level_last_not_pass</t>
+  </si>
+  <si>
+    <t>布阵错误</t>
+  </si>
+  <si>
+    <t>team_error</t>
+  </si>
+  <si>
+    <t>非战斗关卡，不能打</t>
+  </si>
+  <si>
+    <t>chapter_is_not_attack_map</t>
+  </si>
+  <si>
+    <t>挂机令不足</t>
+  </si>
+  <si>
+    <t>chapter_use_onhook_item_not_enouth_num</t>
+  </si>
+  <si>
+    <t>该卡牌已经在其他队伍中挂机</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_team_card_in_other_team</t>
+  </si>
+  <si>
+    <t>卡牌等级没有达到最低限度</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_team_card_level_not_satisfy</t>
+  </si>
+  <si>
+    <t>卡牌id不正确</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_team_same_id_repeat</t>
+  </si>
+  <si>
+    <t>超过队伍最大设置上限</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_team_greater_than_max_person_num</t>
+  </si>
+  <si>
+    <t>未设置队伍</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_team_empty</t>
+  </si>
+  <si>
+    <t>超过当前等级可设置最大队伍数</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_do_not_set_greater_than_limit_team</t>
+  </si>
+  <si>
+    <t>该关卡已经在挂机中，不能挂机</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_already_in_onhook</t>
+  </si>
+  <si>
+    <t>挂机时长太短</t>
+  </si>
+  <si>
+    <t>chapter_get_onhook_reward_time_too_short</t>
+  </si>
+  <si>
+    <t>该关卡不在挂机中</t>
+  </si>
+  <si>
+    <t>chapter_get_onhook_reward_not_in</t>
+  </si>
+  <si>
+    <t>前置关卡条件不满足</t>
+  </si>
+  <si>
+    <t>chapter_pre_level_condition_not_satisfy</t>
+  </si>
+  <si>
+    <t>不是挂机关卡</t>
+  </si>
+  <si>
+    <t>chapter_set_onhook_not_onhook_level</t>
+  </si>
+  <si>
+    <t>不存在关卡id</t>
+  </si>
+  <si>
+    <t>chapter_not_found_level_id</t>
+  </si>
+  <si>
+    <t>星星数量不足</t>
+  </si>
+  <si>
+    <t>chapter_got_chest_not_enouth_star</t>
+  </si>
+  <si>
+    <t>已经领取过这个星级的宝箱了</t>
+  </si>
+  <si>
+    <t>chapter_got_chest_star_already_get</t>
+  </si>
+  <si>
+    <t>数据表中没有此星级的奖励</t>
+  </si>
+  <si>
+    <t>chapter_got_chest_no_star_found</t>
+  </si>
+  <si>
+    <t>章节不存在~</t>
+  </si>
+  <si>
+    <t>chapter_not_found_chapter_id</t>
+  </si>
+  <si>
+    <t>阵法未学习</t>
+  </si>
+  <si>
+    <t>array_not_learn</t>
+  </si>
+  <si>
+    <t>战斗已结束</t>
+  </si>
+  <si>
+    <t>fight_is_end</t>
+  </si>
+  <si>
+    <t>阵容错误</t>
+  </si>
+  <si>
+    <t>fight_error_team</t>
+  </si>
+  <si>
+    <t>已召唤守护灵，不可释放技能</t>
+  </si>
+  <si>
+    <t>fight_entity_had_call</t>
+  </si>
+  <si>
+    <t>召唤CD中</t>
+  </si>
+  <si>
+    <t>fight_entity_call_cd</t>
+  </si>
+  <si>
+    <t>技能CD中</t>
+  </si>
+  <si>
+    <t>fight_entity_skill_cd</t>
+  </si>
+  <si>
+    <t>被动技能不可释放</t>
+  </si>
+  <si>
+    <t>fight_entity_error_skill</t>
+  </si>
+  <si>
+    <t>禁止释放技能</t>
+  </si>
+  <si>
+    <t>fight_entity_no_skill</t>
+  </si>
+  <si>
+    <t>禁止召唤守护灵</t>
+  </si>
+  <si>
+    <t>fight_entity_no_call</t>
+  </si>
+  <si>
+    <t>禁止行动</t>
+  </si>
+  <si>
+    <t>fight_entity_no_action</t>
+  </si>
+  <si>
+    <t>实体已死亡</t>
+  </si>
+  <si>
+    <t>fight_entity_dead</t>
+  </si>
+  <si>
+    <t>寄灵人不可手动升级</t>
+  </si>
+  <si>
+    <t>card_host_not_level_up</t>
+  </si>
+  <si>
+    <t>条件未满足</t>
+  </si>
+  <si>
+    <t>card_condition_not_enough</t>
+  </si>
+  <si>
+    <t>该技能已经学习</t>
+  </si>
+  <si>
+    <t>skill_study</t>
+  </si>
+  <si>
+    <t>学习技能红黄蓝类型不对</t>
+  </si>
+  <si>
+    <t>not_match</t>
+  </si>
+  <si>
+    <t>技能不存在</t>
+  </si>
+  <si>
+    <t>no_skill</t>
+  </si>
+  <si>
+    <t>插槽不足</t>
+  </si>
+  <si>
+    <t>not_enough_skill_blank</t>
+  </si>
+  <si>
+    <t>当前地狱道不存在</t>
+  </si>
+  <si>
+    <t>no_hell</t>
+  </si>
+  <si>
+    <t>卡牌升级经验池经验不足</t>
+  </si>
+  <si>
+    <t>exp_not_enough</t>
+  </si>
+  <si>
+    <t>卡牌不存在</t>
+  </si>
+  <si>
+    <t>no_card</t>
+  </si>
+  <si>
+    <t>不可出售</t>
+  </si>
+  <si>
+    <t>cant_sell</t>
+  </si>
+  <si>
+    <t>卡池不存在</t>
+  </si>
+  <si>
+    <t>no_pool_id</t>
+  </si>
+  <si>
+    <t>暂无信息</t>
+  </si>
+  <si>
+    <t>no_msg</t>
+  </si>
+  <si>
+    <t>货币兑换次数不足</t>
+  </si>
+  <si>
+    <t>coin_exchange_no_times</t>
+  </si>
+  <si>
+    <t>商品未开放购买</t>
+  </si>
+  <si>
+    <t>goods_not_open</t>
+  </si>
+  <si>
+    <t>货币不足</t>
+  </si>
+  <si>
+    <t>coin_not_enough</t>
+  </si>
+  <si>
+    <t>商品已售罄</t>
+  </si>
+  <si>
+    <t>goods_sell_over</t>
+  </si>
+  <si>
+    <t>玩家不存在</t>
+  </si>
+  <si>
+    <t>no_user</t>
+  </si>
+  <si>
+    <t>时间不够</t>
+  </si>
+  <si>
+    <t>time_enough</t>
+  </si>
+  <si>
+    <t>stamina_not_enough</t>
+  </si>
+  <si>
+    <t>邮件有附件，不能设置为已读</t>
+  </si>
+  <si>
+    <t>mail_have_reward_cannot_read</t>
+  </si>
+  <si>
+    <t>邮件是已读</t>
+  </si>
+  <si>
+    <t>mail_state_already_read</t>
+  </si>
+  <si>
+    <t>邮件无附件</t>
+  </si>
+  <si>
+    <t>mail_none_reward</t>
+  </si>
+  <si>
+    <t>邮件已领取</t>
+  </si>
+  <si>
+    <t>mail_already_get</t>
+  </si>
+  <si>
+    <t>邮件有附件未领取，不能删除</t>
+  </si>
+  <si>
+    <t>mail_have_reward_cannot_delete</t>
+  </si>
+  <si>
+    <t>邮件已被删除</t>
+  </si>
+  <si>
+    <t>mail_already_delete</t>
+  </si>
+  <si>
+    <t>邮件未找到</t>
+  </si>
+  <si>
+    <t>mail_not_found_mail</t>
+  </si>
+  <si>
+    <t>token错误</t>
+  </si>
+  <si>
+    <t>token_error</t>
+  </si>
+  <si>
+    <t>达到等级上限</t>
+  </si>
+  <si>
+    <t>level_limit</t>
+  </si>
+  <si>
+    <t>等级不足</t>
+  </si>
+  <si>
+    <t>not_enough_level</t>
+  </si>
+  <si>
+    <t>not_enough_item</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+  </si>
+  <si>
+    <t>error_param</t>
+  </si>
+  <si>
+    <t>不在时间段内</t>
+  </si>
+  <si>
+    <t>error_time</t>
+  </si>
+  <si>
+    <t>恭喜玩家：{0}将武器：{1}升到顶级</t>
+  </si>
+  <si>
+    <t>weapon_level</t>
+  </si>
+  <si>
+    <t>竞技场积分为：{0}</t>
+  </si>
+  <si>
+    <t>score_reward_content</t>
+  </si>
+  <si>
+    <t>积分奖励</t>
+  </si>
+  <si>
+    <t>score_reward_title</t>
+  </si>
+  <si>
+    <t>恭喜竞技场排名达到：{0}名</t>
+  </si>
+  <si>
+    <t>rank_reward_content</t>
+  </si>
+  <si>
+    <t>名次奖励</t>
+  </si>
+  <si>
+    <t>rank_reward_title</t>
+  </si>
+  <si>
+    <t>恭喜玩家：{0}获得卡牌：{1}</t>
+  </si>
+  <si>
+    <t>get_card</t>
+  </si>
+  <si>
+    <t>消息{}为英文输入法</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>server_message.txt</t>
+  </si>
+  <si>
+    <t>服务端信息</t>
+  </si>
+  <si>
+    <t>server_message.lua</t>
+  </si>
+  <si>
+    <t>yeildum_not_enough</t>
+  </si>
+  <si>
+    <t>挑战次数不足</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,6 +1509,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1443,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1461,7 +2004,7 @@
     <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1583,29 +2126,45 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>432</v>
+      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1616,8 +2175,30 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+    <row r="9" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1968,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2935,39 +3516,6 @@
       </c>
       <c r="C87" s="8" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>100085</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>100086</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>100087</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3730,4 +4278,1038 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="59.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>3001</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>3002</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>4001</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>4002</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>4003</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>4004</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>4005</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>4006</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>4007</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>4008</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>4009</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>5001</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>5002</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>5003</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>5004</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>5005</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>5006</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>5007</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>5008</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>5009</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>5010</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>6001</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>6002</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>6003</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>6004</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>6005</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>6006</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>6007</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>6008</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>6009</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>6010</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>6011</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>6012</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>6013</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>6014</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>6015</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>6016</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>6017</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>6018</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>6019</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>6020</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>6021</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>6022</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>6023</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>6024</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>6025</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>7001</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>7002</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
+        <v>7003</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
+        <v>7004</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
+        <v>7005</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>7006</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
+        <v>7007</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="8">
+        <v>7008</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
+        <v>7009</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>7010</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
+        <v>7011</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>7012</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>7013</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="456">
   <si>
     <t>sheet名</t>
   </si>
@@ -1431,17 +1426,98 @@
     <t>server_message.lua</t>
   </si>
   <si>
-    <t>yeildum_not_enough</t>
-  </si>
-  <si>
-    <t>挑战次数不足</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>地狱道标题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶条件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶条件标题3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶后开启</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶后开启标题2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级标题1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶按钮上面文字</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>*需要完成所有晋阶条件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前等级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶标签</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶按钮名字</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道开启功能等级类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道开启功能解锁类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道开启功能开启类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道开启功能获得类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,7 +1607,6 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1658,7 +1733,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
@@ -1697,7 +1772,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
@@ -1988,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2547,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C90"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3518,28 +3592,142 @@
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93"/>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="7"/>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
+        <v>100085</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>100086</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
+        <v>100087</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>100088</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>100089</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
+        <v>100090</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="8">
+        <v>100091</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
+        <v>100092</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>100093</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>100094</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
+        <v>100095</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="8">
+        <v>100096</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>449</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4282,10 +4470,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5297,17 +5485,6 @@
         <v>256</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>7013</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="460">
   <si>
     <t>sheet名</t>
   </si>
@@ -1511,6 +1511,21 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阶成功标题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击任意位置关闭</t>
+  </si>
+  <si>
+    <t>点击任意位置关闭</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2062,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2285,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2621,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3722,6 +3737,28 @@
       </c>
       <c r="C99" s="1" t="s">
         <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
+        <v>100097</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
+        <v>100098</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463">
   <si>
     <t>sheet名</t>
   </si>
@@ -1484,6 +1484,24 @@
   <si>
     <t>恶灵已被击败</t>
   </si>
+  <si>
+    <t>nation_team_card_in_army</t>
+  </si>
+  <si>
+    <t>队伍内存在处于征募中状态的角色，无法进行转换</t>
+  </si>
+  <si>
+    <t>nation_team_not_stand_by</t>
+  </si>
+  <si>
+    <t>队伍处于非待命状态，无法进行转换</t>
+  </si>
+  <si>
+    <t>nation_team_army_group_not_in_stand_by</t>
+  </si>
+  <si>
+    <t>有使用该军团的队伍处于非待命状态，无法进行重置</t>
+  </si>
 </sst>
 </file>
 
@@ -1491,11 +1509,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,22 +1536,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1548,10 +1588,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1562,35 +1603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1599,15 +1613,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,9 +1642,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,60 +1693,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1703,8 +1706,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,19 +1730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,7 +1760,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1868,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,37 +1904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,115 +1928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,6 +1974,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1983,6 +2003,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2003,21 +2047,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2032,26 +2061,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2066,189 +2082,178 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2265,8 +2270,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="58"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2292,7 +2297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4881,7 +4886,7 @@
       <c r="C94" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4891,7 +4896,7 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5066,10 +5071,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6079,6 +6084,39 @@
         <v>456</v>
       </c>
     </row>
+    <row r="92" ht="16.5" spans="1:3">
+      <c r="A92" s="3">
+        <v>7013</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" ht="16.5" spans="1:3">
+      <c r="A93" s="3">
+        <v>7014</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="1:3">
+      <c r="A94" s="3">
+        <v>7015</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28245" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470">
   <si>
     <t>sheet名</t>
   </si>
@@ -105,10 +105,10 @@
     <t>string:</t>
   </si>
   <si>
-    <t>string:&lt;</t>
-  </si>
-  <si>
     <t>string:e&lt;</t>
+  </si>
+  <si>
+    <t>string:e</t>
   </si>
   <si>
     <t>唯一键</t>
@@ -272,6 +272,27 @@
   </si>
   <si>
     <t>需寄灵人%s级</t>
+  </si>
+  <si>
+    <t>神器解锁提示</t>
+  </si>
+  <si>
+    <t>神器相应的地狱道未解锁</t>
+  </si>
+  <si>
+    <t>地狱道达到%s时解锁</t>
+  </si>
+  <si>
+    <t>商店购买功能</t>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>所需货币不足</t>
+  </si>
+  <si>
+    <t>货币不足</t>
   </si>
   <si>
     <t>#note</t>
@@ -305,6 +326,9 @@
     <t>string:&lt;&gt;</t>
   </si>
   <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
     <t>备注，策划一定要写清楚，这个文本在哪用的，不然日后很难维护</t>
   </si>
   <si>
@@ -362,7 +386,7 @@
     <t>商店界面日期购买提示</t>
   </si>
   <si>
-    <t>%s还可购买&lt;color=#f9be00&gt;%s&lt;/color&gt;次</t>
+    <t>%s剩余&lt;color=#3F793F&gt;%s&lt;/color&gt;次</t>
   </si>
   <si>
     <t>商店折扣</t>
@@ -638,10 +662,10 @@
     <t>暂无可领取奖励</t>
   </si>
   <si>
-    <t>技能兑换信息界面提示</t>
-  </si>
-  <si>
-    <t>&lt;color=#55FF00&gt;兑换成功，新技能已放入技能背包中&lt;/color&gt;</t>
+    <t>武灵技激活成功提示</t>
+  </si>
+  <si>
+    <t>&lt;color=#55FF00&gt;激活成功&lt;/color&gt;</t>
   </si>
   <si>
     <t>神器界面提示</t>
@@ -1104,9 +1128,6 @@
     <t>coin_not_enough</t>
   </si>
   <si>
-    <t>货币不足</t>
-  </si>
-  <si>
     <t>goods_not_open</t>
   </si>
   <si>
@@ -1508,10 +1529,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1536,14 +1557,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,9 +1573,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1572,17 +1594,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,21 +1633,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1620,23 +1648,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,24 +1669,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1685,9 +1691,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1707,9 +1728,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1730,13 +1751,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,7 +1799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,19 +1817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,43 +1829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,19 +1859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,7 +1871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,31 +1895,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,13 +1925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,7 +1955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,55 +2014,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2074,6 +2047,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2088,178 +2109,178 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
@@ -2270,8 +2291,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2282,6 +2303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="33" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2359,8 +2381,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
     <cellStyle name="Normal" xfId="55"/>
     <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="文本" xfId="57"/>
-    <cellStyle name="常规 3" xfId="58"/>
+    <cellStyle name="常规 3" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
     <cellStyle name="超链接 2" xfId="59"/>
     <cellStyle name="无效" xfId="60"/>
     <cellStyle name="中文标题" xfId="61"/>
@@ -2638,7 +2660,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2680,20 +2702,20 @@
       </c>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3" t="b">
@@ -2772,7 +2794,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="47.25" customHeight="1" spans="1:8">
+    <row r="6" ht="47.25" customHeight="1" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2792,7 +2814,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="47.25" customHeight="1" spans="1:8">
+    <row r="7" ht="47.25" customHeight="1" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2844,7 +2866,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,13 +2878,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
@@ -2894,14 +2916,14 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="32.25" customHeight="1" spans="1:5">
@@ -3091,16 +3113,16 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3108,16 +3130,16 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3125,66 +3147,95 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="13">
+      <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:1">
-      <c r="A20" s="9"/>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3197,11 +3248,11 @@
   <sheetPr/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.25" style="4" customWidth="1"/>
@@ -3214,21 +3265,21 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="29.25" customHeight="1" spans="1:3">
@@ -3236,10 +3287,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -3247,10 +3298,10 @@
         <v>100001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -3258,10 +3309,10 @@
         <v>100002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
@@ -3269,10 +3320,10 @@
         <v>100003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
@@ -3280,10 +3331,10 @@
         <v>100004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
@@ -3291,10 +3342,10 @@
         <v>100005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:3">
@@ -3302,10 +3353,10 @@
         <v>100006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -3313,10 +3364,10 @@
         <v>100007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
@@ -3324,10 +3375,10 @@
         <v>100008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
@@ -3335,10 +3386,10 @@
         <v>100009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:3">
@@ -3346,10 +3397,10 @@
         <v>100010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:3">
@@ -3357,10 +3408,10 @@
         <v>100011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:3">
@@ -3368,10 +3419,10 @@
         <v>100012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:3">
@@ -3379,10 +3430,10 @@
         <v>100013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:3">
@@ -3390,10 +3441,10 @@
         <v>100014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
@@ -3401,10 +3452,10 @@
         <v>100015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:3">
@@ -3412,10 +3463,10 @@
         <v>100016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:3">
@@ -3423,10 +3474,10 @@
         <v>100017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:3">
@@ -3434,10 +3485,10 @@
         <v>100018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:3">
@@ -3445,10 +3496,10 @@
         <v>100019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" ht="33" spans="1:3">
@@ -3456,10 +3507,10 @@
         <v>100020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:3">
@@ -3467,10 +3518,10 @@
         <v>100021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:3">
@@ -3478,10 +3529,10 @@
         <v>100022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:3">
@@ -3489,10 +3540,10 @@
         <v>100023</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:3">
@@ -3500,10 +3551,10 @@
         <v>100024</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" ht="33" spans="1:3">
@@ -3511,10 +3562,10 @@
         <v>100025</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" ht="33" spans="1:3">
@@ -3522,10 +3573,10 @@
         <v>100026</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:3">
@@ -3533,7 +3584,7 @@
         <v>100027</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>44</v>
@@ -3544,10 +3595,10 @@
         <v>100028</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:3">
@@ -3555,10 +3606,10 @@
         <v>100029</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:3">
@@ -3566,10 +3617,10 @@
         <v>100030</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:3">
@@ -3577,10 +3628,10 @@
         <v>100031</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:3">
@@ -3588,10 +3639,10 @@
         <v>100032</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:3">
@@ -3599,10 +3650,10 @@
         <v>100033</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:3">
@@ -3610,10 +3661,10 @@
         <v>100034</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:3">
@@ -3621,10 +3672,10 @@
         <v>100035</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:3">
@@ -3632,10 +3683,10 @@
         <v>100036</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:3">
@@ -3643,10 +3694,10 @@
         <v>100037</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:3">
@@ -3654,10 +3705,10 @@
         <v>100038</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:3">
@@ -3665,10 +3716,10 @@
         <v>100039</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:3">
@@ -3676,10 +3727,10 @@
         <v>100040</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:3">
@@ -3687,10 +3738,10 @@
         <v>100041</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:3">
@@ -3698,10 +3749,10 @@
         <v>100042</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:3">
@@ -3709,10 +3760,10 @@
         <v>100043</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="1:3">
@@ -3720,10 +3771,10 @@
         <v>100044</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="1:3">
@@ -3731,10 +3782,10 @@
         <v>100045</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="1:3">
@@ -3742,10 +3793,10 @@
         <v>100046</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:3">
@@ -3753,10 +3804,10 @@
         <v>100047</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:3">
@@ -3764,10 +3815,10 @@
         <v>100048</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:3">
@@ -3775,10 +3826,10 @@
         <v>100049</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="1:3">
@@ -3786,10 +3837,10 @@
         <v>100050</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="1:3">
@@ -3797,10 +3848,10 @@
         <v>100051</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="1:3">
@@ -3808,10 +3859,10 @@
         <v>100052</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="1:3">
@@ -3819,10 +3870,10 @@
         <v>100053</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="1:3">
@@ -3830,10 +3881,10 @@
         <v>100054</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="1:3">
@@ -3841,10 +3892,10 @@
         <v>100055</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:3">
@@ -3852,10 +3903,10 @@
         <v>100056</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:3">
@@ -3863,10 +3914,10 @@
         <v>100057</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:3">
@@ -3874,10 +3925,10 @@
         <v>100058</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="1:3">
@@ -3885,10 +3936,10 @@
         <v>100059</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="1:3">
@@ -3896,10 +3947,10 @@
         <v>100060</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:3">
@@ -3907,10 +3958,10 @@
         <v>100061</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:3">
@@ -3918,10 +3969,10 @@
         <v>100062</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:3">
@@ -3929,10 +3980,10 @@
         <v>100063</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:3">
@@ -3940,10 +3991,10 @@
         <v>100064</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="1:3">
@@ -3951,10 +4002,10 @@
         <v>100065</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="1:3">
@@ -3962,10 +4013,10 @@
         <v>100066</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="1:3">
@@ -3973,21 +4024,21 @@
         <v>100067</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" ht="33" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="1:3">
       <c r="A71" s="3">
         <v>100068</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="1:3">
@@ -3995,10 +4046,10 @@
         <v>100069</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="1:3">
@@ -4006,10 +4057,10 @@
         <v>100070</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:3">
@@ -4017,10 +4068,10 @@
         <v>100071</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="1:3">
@@ -4028,10 +4079,10 @@
         <v>100072</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="1:3">
@@ -4039,10 +4090,10 @@
         <v>100073</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="1:3">
@@ -4050,10 +4101,10 @@
         <v>100074</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="1:3">
@@ -4061,10 +4112,10 @@
         <v>100075</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="1:3">
@@ -4072,10 +4123,10 @@
         <v>100076</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="1:3">
@@ -4083,10 +4134,10 @@
         <v>100077</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="1:3">
@@ -4094,10 +4145,10 @@
         <v>100078</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="1:3">
@@ -4105,10 +4156,10 @@
         <v>100079</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="1:3">
@@ -4116,10 +4167,10 @@
         <v>100080</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="1:3">
@@ -4127,10 +4178,10 @@
         <v>100081</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="1:3">
@@ -4138,10 +4189,10 @@
         <v>100082</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="1:3">
@@ -4149,10 +4200,10 @@
         <v>100083</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="1:3">
@@ -4160,10 +4211,10 @@
         <v>100084</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="1:3">
@@ -4171,10 +4222,10 @@
         <v>100085</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="1:3">
@@ -4182,10 +4233,10 @@
         <v>100086</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="1:3">
@@ -4193,10 +4244,10 @@
         <v>100087</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="1:3">
@@ -4204,10 +4255,10 @@
         <v>100088</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="1:3">
@@ -4215,10 +4266,10 @@
         <v>100089</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="1:3">
@@ -4226,10 +4277,10 @@
         <v>100090</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:3">
@@ -4237,10 +4288,10 @@
         <v>100091</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="1:3">
@@ -4248,10 +4299,10 @@
         <v>100092</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="1:3">
@@ -4259,10 +4310,10 @@
         <v>100093</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="1:3">
@@ -4270,10 +4321,10 @@
         <v>100094</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="1:3">
@@ -4281,10 +4332,10 @@
         <v>100095</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="1:3">
@@ -4292,10 +4343,10 @@
         <v>100096</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="1:3">
@@ -4303,10 +4354,10 @@
         <v>100097</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="1:3">
@@ -4314,10 +4365,10 @@
         <v>100098</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4387,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.25" style="4" customWidth="1"/>
@@ -4348,21 +4399,21 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:3">
@@ -4370,10 +4421,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -4381,10 +4432,10 @@
         <v>200001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -4392,10 +4443,10 @@
         <v>200002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
@@ -4403,10 +4454,10 @@
         <v>200003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
@@ -4414,10 +4465,10 @@
         <v>200004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
@@ -4425,10 +4476,10 @@
         <v>200005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:3">
@@ -4436,10 +4487,10 @@
         <v>200006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -4447,10 +4498,10 @@
         <v>200007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
@@ -4458,10 +4509,10 @@
         <v>200008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
@@ -4469,10 +4520,10 @@
         <v>200009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4900,7 +4951,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
@@ -4913,21 +4964,21 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
@@ -4935,10 +4986,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4946,10 +4997,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4957,10 +5008,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4968,10 +5019,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4979,21 +5030,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" ht="57" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" ht="71.25" customHeight="1" spans="1:3">
@@ -5001,10 +5052,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" ht="53.25" customHeight="1" spans="1:3">
@@ -5012,10 +5063,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="53.25" customHeight="1" spans="1:3">
@@ -5023,10 +5074,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5034,10 +5085,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5045,21 +5096,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:3">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5073,11 +5124,11 @@
   <sheetPr/>
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="59.875" customWidth="1"/>
     <col min="3" max="3" width="45.125" customWidth="1"/>
@@ -5088,10 +5139,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5099,10 +5150,10 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
@@ -5110,10 +5161,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -5121,10 +5172,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -5132,10 +5183,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
@@ -5143,10 +5194,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
@@ -5154,10 +5205,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
@@ -5165,10 +5216,10 @@
         <v>1004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:3">
@@ -5176,10 +5227,10 @@
         <v>1005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -5187,10 +5238,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
@@ -5198,10 +5249,10 @@
         <v>2001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
@@ -5209,7 +5260,7 @@
         <v>2002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
@@ -5220,10 +5271,10 @@
         <v>2003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:3">
@@ -5231,10 +5282,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:3">
@@ -5242,10 +5293,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:3">
@@ -5253,10 +5304,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:3">
@@ -5264,10 +5315,10 @@
         <v>2007</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
@@ -5275,10 +5326,10 @@
         <v>2008</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:3">
@@ -5286,10 +5337,10 @@
         <v>2009</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:3">
@@ -5297,10 +5348,10 @@
         <v>2010</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:3">
@@ -5308,10 +5359,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:3">
@@ -5319,10 +5370,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:3">
@@ -5330,10 +5381,10 @@
         <v>2013</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:3">
@@ -5341,10 +5392,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:3">
@@ -5352,10 +5403,10 @@
         <v>2015</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:3">
@@ -5363,10 +5414,10 @@
         <v>2016</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:3">
@@ -5374,10 +5425,10 @@
         <v>2017</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:3">
@@ -5385,10 +5436,10 @@
         <v>2018</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:3">
@@ -5396,10 +5447,10 @@
         <v>2019</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:3">
@@ -5407,10 +5458,10 @@
         <v>2020</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:3">
@@ -5418,10 +5469,10 @@
         <v>3001</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:3">
@@ -5429,10 +5480,10 @@
         <v>3002</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:3">
@@ -5440,10 +5491,10 @@
         <v>4000</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:3">
@@ -5451,10 +5502,10 @@
         <v>4001</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:3">
@@ -5462,10 +5513,10 @@
         <v>4002</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:3">
@@ -5473,10 +5524,10 @@
         <v>4003</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:3">
@@ -5484,10 +5535,10 @@
         <v>4004</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:3">
@@ -5495,10 +5546,10 @@
         <v>4005</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:3">
@@ -5506,10 +5557,10 @@
         <v>4006</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:3">
@@ -5517,10 +5568,10 @@
         <v>4007</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:3">
@@ -5528,10 +5579,10 @@
         <v>4008</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:3">
@@ -5539,10 +5590,10 @@
         <v>4009</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:3">
@@ -5550,10 +5601,10 @@
         <v>5000</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:3">
@@ -5561,10 +5612,10 @@
         <v>5001</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:3">
@@ -5572,10 +5623,10 @@
         <v>5002</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:3">
@@ -5583,10 +5634,10 @@
         <v>5003</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="1:3">
@@ -5594,10 +5645,10 @@
         <v>5004</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="1:3">
@@ -5605,10 +5656,10 @@
         <v>5005</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="1:3">
@@ -5616,10 +5667,10 @@
         <v>5006</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:3">
@@ -5627,10 +5678,10 @@
         <v>5007</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:3">
@@ -5638,10 +5689,10 @@
         <v>5008</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:3">
@@ -5649,10 +5700,10 @@
         <v>5009</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="1:3">
@@ -5660,10 +5711,10 @@
         <v>5010</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="1:3">
@@ -5671,10 +5722,10 @@
         <v>6000</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="1:3">
@@ -5682,10 +5733,10 @@
         <v>6001</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="1:3">
@@ -5693,10 +5744,10 @@
         <v>6002</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="1:3">
@@ -5704,10 +5755,10 @@
         <v>6003</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="1:3">
@@ -5715,10 +5766,10 @@
         <v>6004</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="1:3">
@@ -5726,10 +5777,10 @@
         <v>6005</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:3">
@@ -5737,10 +5788,10 @@
         <v>6006</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="1:3">
@@ -5748,10 +5799,10 @@
         <v>6007</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="1:3">
@@ -5759,10 +5810,10 @@
         <v>6008</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="1:3">
@@ -5770,10 +5821,10 @@
         <v>6009</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="1:3">
@@ -5781,10 +5832,10 @@
         <v>6010</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="1:3">
@@ -5792,10 +5843,10 @@
         <v>6011</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="1:3">
@@ -5803,10 +5854,10 @@
         <v>6012</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="1:3">
@@ -5814,10 +5865,10 @@
         <v>6013</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="1:3">
@@ -5825,10 +5876,10 @@
         <v>6014</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="1:3">
@@ -5836,10 +5887,10 @@
         <v>6015</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="1:3">
@@ -5847,10 +5898,10 @@
         <v>6016</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="1:3">
@@ -5858,10 +5909,10 @@
         <v>6017</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="1:3">
@@ -5869,10 +5920,10 @@
         <v>6018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="1:3">
@@ -5880,10 +5931,10 @@
         <v>6019</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:3">
@@ -5891,10 +5942,10 @@
         <v>6020</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="1:3">
@@ -5902,10 +5953,10 @@
         <v>6021</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="1:3">
@@ -5913,10 +5964,10 @@
         <v>6022</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="1:3">
@@ -5924,10 +5975,10 @@
         <v>6023</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="1:3">
@@ -5935,10 +5986,10 @@
         <v>6024</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="1:3">
@@ -5946,10 +5997,10 @@
         <v>6025</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="1:3">
@@ -5957,10 +6008,10 @@
         <v>7001</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="1:3">
@@ -5968,10 +6019,10 @@
         <v>7002</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="1:3">
@@ -5979,10 +6030,10 @@
         <v>7003</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="1:3">
@@ -5990,10 +6041,10 @@
         <v>7004</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="1:3">
@@ -6001,10 +6052,10 @@
         <v>7005</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="1:3">
@@ -6012,10 +6063,10 @@
         <v>7006</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="1:3">
@@ -6023,10 +6074,10 @@
         <v>7007</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="1:3">
@@ -6034,10 +6085,10 @@
         <v>7008</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="1:3">
@@ -6045,10 +6096,10 @@
         <v>7009</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="1:3">
@@ -6056,10 +6107,10 @@
         <v>7010</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="1:3">
@@ -6067,10 +6118,10 @@
         <v>7011</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="1:3">
@@ -6078,10 +6129,10 @@
         <v>7012</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="1:3">
@@ -6089,10 +6140,10 @@
         <v>7013</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="1:3">
@@ -6100,10 +6151,10 @@
         <v>7014</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:3">
@@ -6111,10 +6162,10 @@
         <v>7015</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="529">
   <si>
     <t>sheet名</t>
   </si>
@@ -206,6 +211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>培养1</t>
@@ -215,6 +221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0次</t>
@@ -229,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>培养1</t>
@@ -238,6 +246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次</t>
@@ -306,6 +315,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,6 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -398,9 +409,6 @@
     <t>派遣巡逻队伍数量显示</t>
   </si>
   <si>
-    <t>派遣队伍的数量：&lt;color=#FEC200&gt;%s&lt;/color&gt;/%s</t>
-  </si>
-  <si>
     <t>邮件系统全部</t>
   </si>
   <si>
@@ -827,43 +835,28 @@
     <t>点击任意位置关闭</t>
   </si>
   <si>
-    <t>征兵Item</t>
-  </si>
-  <si>
-    <t>兵力已经达到上限</t>
-  </si>
-  <si>
-    <t>充能中</t>
-  </si>
-  <si>
-    <t>立即完成</t>
-  </si>
-  <si>
-    <t>征兵</t>
-  </si>
-  <si>
-    <t>是否确认开始征募</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>无可征兵队伍</t>
-  </si>
-  <si>
-    <t>无可停止队伍</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Txt</t>
+    <t>本店由曹焱兵火速配送!  !</t>
+  </si>
+  <si>
+    <t>获取寄灵石</t>
+  </si>
+  <si>
+    <t>适度娱乐，理性消费</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>购买需要</t>
+  </si>
+  <si>
+    <t>货币不足！</t>
+  </si>
+  <si>
+    <t>购 买</t>
   </si>
   <si>
     <r>
@@ -871,6 +864,135 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买</t>
+    </r>
+  </si>
+  <si>
+    <t>芦花鼓楼</t>
+  </si>
+  <si>
+    <t>暂无奖励</t>
+  </si>
+  <si>
+    <t>敬请期待</t>
+  </si>
+  <si>
+    <t>第%s关</t>
+  </si>
+  <si>
+    <t>通关数</t>
+  </si>
+  <si>
+    <t>第%s关通关奖励</t>
+  </si>
+  <si>
+    <t>每日奖励</t>
+  </si>
+  <si>
+    <t>芦花商店</t>
+  </si>
+  <si>
+    <t>芦花排行</t>
+  </si>
+  <si>
+    <t>用卡范围</t>
+  </si>
+  <si>
+    <t>开始挑战</t>
+  </si>
+  <si>
+    <t>第</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>%s门用卡范围</t>
+  </si>
+  <si>
+    <t>尚未获得</t>
+  </si>
+  <si>
+    <t>当前累积每日奖励</t>
+  </si>
+  <si>
+    <t>每次通关会增加奖励 次日0点邮件发放</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>征兵Item</t>
+  </si>
+  <si>
+    <t>兵力已经达到上限</t>
+  </si>
+  <si>
+    <t>充能中</t>
+  </si>
+  <si>
+    <t>立即完成</t>
+  </si>
+  <si>
+    <t>征兵</t>
+  </si>
+  <si>
+    <t>是否确认开始征募</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>无可征兵队伍</t>
+  </si>
+  <si>
+    <t>无可停止队伍</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Txt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -881,6 +1003,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1523,18 +1646,142 @@
   <si>
     <t>有使用该军团的队伍处于非待命状态，无法进行重置</t>
   </si>
+  <si>
+    <t>cardBreakLv_need_less_than_hellLv</t>
+  </si>
+  <si>
+    <t>卡牌突破等级不得高于玩家地狱道等级</t>
+  </si>
+  <si>
+    <t>联盟日志-开启联盟申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-关闭联盟申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-加入联盟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-离开联盟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-职位任命</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-职位罢免</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-联盟等级提升</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-攻城战开始</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-联盟占领建筑(非首占)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟日志-联盟占领建筑(首占)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣队伍的数量：&lt;color=#FEC200&gt;%s&lt;/color&gt;/%s</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_open</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_close</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_join</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_out</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_appoint</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_recall</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_upgrade</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_siege_war_start</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_first_occupation</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance_occupation</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}开启了联盟申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}关闭了联盟申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}加入了联盟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}离开了联盟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}将{1}任命为{2}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}罢免了{1}的{2}职位</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟等级提升为Lv.{0}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对{0}的攻击开始</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟成功占领{0}(Lv.{1}),点击查看&lt;color=#FEC200&gt;攻城战排行榜&lt;/color&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟成功完成对{0}(Lv.{1})的首次占领，点击查看&lt;color=#FEC200&gt;攻城战排行榜&lt;/color&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,72 +1794,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1620,96 +1816,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1717,13 +1839,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1732,11 +1848,36 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1751,199 +1892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,8 +1914,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1995,104 +1956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2104,195 +1967,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="61">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="13">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2300,97 +2019,56 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="14">
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="常规 3" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="超链接 2" xfId="59"/>
-    <cellStyle name="无效" xfId="60"/>
-    <cellStyle name="中文标题" xfId="61"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="9"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2648,19 +2326,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2672,7 +2350,7 @@
     <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:8">
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -2723,7 +2401,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="47.25" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2748,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="47.25" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="47.25" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2794,7 +2472,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" ht="47.25" customHeight="1" spans="1:8">
+    <row r="6" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2814,7 +2492,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="47.25" customHeight="1" spans="1:8">
+    <row r="7" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2832,7 +2510,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="57.75" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2843,7 +2521,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="54" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2854,7 +2532,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" ht="55.5" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2865,26 +2543,23 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
@@ -2892,7 +2567,7 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2909,7 +2584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2926,7 +2601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="32.25" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2943,7 +2618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2960,7 +2635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2977,7 +2652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2994,7 +2669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3011,7 +2686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3028,7 +2703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3045,7 +2720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3062,7 +2737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3077,7 +2752,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3094,7 +2769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3109,7 +2784,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3126,7 +2801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3143,7 +2818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3158,7 +2833,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3173,7 +2848,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -3188,7 +2863,7 @@
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -3205,7 +2880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3220,7 +2895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3238,29 +2913,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55" style="4" customWidth="1"/>
     <col min="3" max="3" width="50.25" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +2945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -3282,7 +2956,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" ht="29.25" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3293,7 +2967,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>100001</v>
       </c>
@@ -3304,7 +2978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>100002</v>
       </c>
@@ -3315,7 +2989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>100003</v>
       </c>
@@ -3326,7 +3000,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>100004</v>
       </c>
@@ -3337,7 +3011,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>100005</v>
       </c>
@@ -3348,7 +3022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>100006</v>
       </c>
@@ -3359,7 +3033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>100007</v>
       </c>
@@ -3370,7 +3044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:3">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>100008</v>
       </c>
@@ -3381,7 +3055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>100009</v>
       </c>
@@ -3392,7 +3066,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>100010</v>
       </c>
@@ -3403,7 +3077,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>100011</v>
       </c>
@@ -3414,7 +3088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:3">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>100012</v>
       </c>
@@ -3422,979 +3096,1308 @@
         <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>100013</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>100014</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>100015</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:3">
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>100016</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:3">
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>100017</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:3">
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>100018</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:3">
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>100019</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" ht="33" spans="1:3">
+    </row>
+    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>100020</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:3">
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>100021</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:3">
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>100022</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:3">
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>100023</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:3">
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>100024</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" ht="33" spans="1:3">
+    </row>
+    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>100025</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" ht="33" spans="1:3">
+    </row>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>100026</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>100027</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:3">
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>100028</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:3">
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>100029</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" ht="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:3" ht="33" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>100030</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:3">
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>100031</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:3">
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>100032</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="1:3">
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>100033</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="1:3">
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>100034</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="1:3">
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>100035</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="1:3">
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>100036</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>100037</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>100038</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>100039</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>100040</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>100041</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>100042</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>100043</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>100044</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>100045</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:3">
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>100046</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:3">
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>100047</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:3">
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>100048</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" spans="1:3">
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>100049</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" spans="1:3">
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>100050</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5" spans="1:3">
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>100051</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>100052</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" spans="1:3">
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>100053</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>100054</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" ht="16.5" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>100055</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" ht="16.5" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>100056</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" spans="1:3">
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>100057</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>100058</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>100059</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" spans="1:3">
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>100060</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" ht="16.5" spans="1:3">
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>100061</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" ht="16.5" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>100062</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" ht="16.5" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>100063</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>100064</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>100065</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="16.5" spans="1:3">
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>100066</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" spans="1:3">
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>100067</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" ht="16.5" spans="1:3">
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>100068</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" spans="1:3">
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>100069</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" spans="1:3">
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>100070</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" ht="16.5" spans="1:3">
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>100071</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" ht="16.5" spans="1:3">
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>100072</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" ht="16.5" spans="1:3">
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>100073</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" spans="1:3">
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>100074</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>100075</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" spans="1:3">
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>100076</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" spans="1:3">
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>100077</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" ht="16.5" spans="1:3">
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>100078</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" ht="16.5" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>100079</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" ht="16.5" spans="1:3">
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>100080</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" ht="16.5" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>100081</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" ht="16.5" spans="1:3">
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>100082</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" ht="16.5" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>100083</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" ht="16.5" spans="1:3">
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>100084</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" ht="16.5" spans="1:3">
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>100085</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" ht="16.5" spans="1:3">
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>100086</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" ht="16.5" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>100087</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" ht="16.5" spans="1:3">
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>100088</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" ht="16.5" spans="1:3">
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>100089</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" ht="16.5" spans="1:3">
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>100090</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" ht="16.5" spans="1:3">
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>100091</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" ht="16.5" spans="1:3">
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>100092</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" ht="16.5" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>100093</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" ht="16.5" spans="1:3">
+    </row>
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>100094</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="98" ht="16.5" spans="1:3">
+    </row>
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>100095</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" ht="16.5" spans="1:3">
+    </row>
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>100096</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" ht="16.5" spans="1:3">
+    </row>
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>100097</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="101" ht="16.5" spans="1:3">
+    </row>
+    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100098</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>100099</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>250</v>
       </c>
     </row>
+    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>100100</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>100101</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>100102</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>100103</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>100104</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>100105</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>100106</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>100107</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>100108</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>100109</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>100110</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>100111</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>100112</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>100113</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>100114</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>100115</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>100116</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>100117</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>100118</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>100119</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>100120</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>100121</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>100122</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>100123</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>100124</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>100125</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>100126</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>100127</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>100128</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="50.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4427,531 +4430,529 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>200001</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>251</v>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>200002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>200003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>200004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>200005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>200006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>200007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>200008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>200009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23"/>
+      <c r="B23" s="9"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24"/>
+      <c r="B24" s="9"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25"/>
+      <c r="B25" s="9"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26"/>
+      <c r="B26" s="9"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
@@ -4959,20 +4960,20 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>84</v>
@@ -4981,171 +4982,170 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" ht="54" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" ht="71.25" customHeight="1" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" ht="53.25" customHeight="1" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" ht="53.25" customHeight="1" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="59.875" customWidth="1"/>
     <col min="3" max="3" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5156,1020 +5156,1172 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1000</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2000</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2006</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2007</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2008</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2009</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2010</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2011</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2012</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2013</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2014</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2015</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2016</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2017</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:3">
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2018</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2019</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>2020</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>3001</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>3002</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="1:3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4000</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4001</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4002</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="1:3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4003</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="1:3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4004</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="1:3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4005</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="1:3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4006</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="1:3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>4007</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>4008</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>4009</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="1:3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>5000</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>5001</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>5002</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>5003</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>5004</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>5005</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>5006</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>5007</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>5008</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" spans="1:3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>5009</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" spans="1:3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>5010</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5" spans="1:3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>6000</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="1:3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>6001</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" spans="1:3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>6002</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" spans="1:3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>6003</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="58" ht="16.5" spans="1:3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>6004</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="59" ht="16.5" spans="1:3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>6005</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" spans="1:3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>6006</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" spans="1:3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>6007</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" spans="1:3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>6008</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" spans="1:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>6009</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="64" ht="16.5" spans="1:3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>6010</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="65" ht="16.5" spans="1:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>6011</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="66" ht="16.5" spans="1:3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>6012</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" spans="1:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>6013</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" spans="1:3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>6014</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="69" ht="16.5" spans="1:3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>6015</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>6016</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="71" ht="16.5" spans="1:3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>6017</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" spans="1:3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>6018</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" spans="1:3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>6019</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="74" ht="16.5" spans="1:3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>6020</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="75" ht="16.5" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>6021</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="76" ht="16.5" spans="1:3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>6022</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>6023</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" spans="1:3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>6024</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" spans="1:3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>6025</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>7001</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="81" ht="16.5" spans="1:3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>7002</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="82" ht="16.5" spans="1:3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>7003</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="83" ht="16.5" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>7004</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="84" ht="16.5" spans="1:3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>7005</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="85" ht="16.5" spans="1:3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>7006</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="86" ht="16.5" spans="1:3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>7007</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="87" ht="16.5" spans="1:3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>7008</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" ht="16.5" spans="1:3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>7009</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="89" ht="16.5" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>7010</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="90" ht="16.5" spans="1:3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>7011</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="91" ht="16.5" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>7012</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="92" ht="16.5" spans="1:3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>7013</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" ht="16.5" spans="1:3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>7014</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="94" ht="16.5" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>7015</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>469</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>4010</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
+        <v>7016</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
+        <v>7017</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
+        <v>7018</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="9">
+        <v>7019</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
+        <v>7020</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
+        <v>7021</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
+        <v>7022</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
+        <v>7023</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
+        <v>7024</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
+        <v>7025</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/tip.提示表.xlsx
+++ b/Excel/镇魂街/tip.提示表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="629">
   <si>
     <t>sheet名</t>
   </si>
@@ -211,6 +211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>培养1</t>
@@ -220,6 +221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0次</t>
@@ -237,6 +239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>培养1</t>
@@ -246,6 +249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次</t>
@@ -314,6 +318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,6 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,6 +411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%</t>
@@ -414,6 +421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -423,6 +431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>折</t>
@@ -585,7 +594,7 @@
     <t>水晶不足，无法释放</t>
   </si>
   <si>
-    <t>指令不可撤销</t>
+    <t>技能已选取，点击上方行动框可取消</t>
   </si>
   <si>
     <t>未携带守护灵，无法召唤</t>
@@ -893,6 +902,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -903,6 +913,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -913,6 +924,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -995,6 +1007,30 @@
     <t>没有守护灵了，快去找灵槐树感灵吧~</t>
   </si>
   <si>
+    <t>引导守护灵使用水晶技能</t>
+  </si>
+  <si>
+    <t>快使用&lt;color=red&gt;%s&lt;/color&gt;，加速绝技释放。#迟迟不用&lt;color=red&gt;%s&lt;/color&gt;，看来你还没领悟战斗的关键。</t>
+  </si>
+  <si>
+    <t>寄灵人无守护灵</t>
+  </si>
+  <si>
+    <t>其他人都有&lt;color=red&gt;守护灵&lt;/color&gt;保护，为什么我没有？#没有&lt;color=red&gt;守护灵&lt;/color&gt;，战斗前借也要借一个来！#战斗不带&lt;color=red&gt;守护灵&lt;/color&gt;，靠吼输出么？！</t>
+  </si>
+  <si>
+    <t>装备数量已达上限</t>
+  </si>
+  <si>
+    <t>装备背包已满，请尽快清理</t>
+  </si>
+  <si>
+    <t>装备强化等级已达上限</t>
+  </si>
+  <si>
+    <t>装备强化次数已达当前等级上限</t>
+  </si>
+  <si>
     <t>兵力已经达到上限</t>
   </si>
   <si>
@@ -1039,6 +1075,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1049,6 +1086,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1134,6 +1172,12 @@
     <t>探险提升镇魂将等级的最佳手段。#可指定1~6名角色组队，在已开启的探险点探险。#不论镇魂将是否在线，探险均按时长给予奖励。#探险有8小时的收益限制，超出后当天不再获得奖励。#收益时限每日0时重置。</t>
   </si>
   <si>
+    <t>◆ 打造说明 ◆</t>
+  </si>
+  <si>
+    <t>熔炼装备可获得熔炼值。#消耗熔炼值可打造出最低紫色品质的装备。#玩家等级越高打造出的装备等级越高。#连续打造会持续到出现橙色装备为止。</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -1975,43 +2019,47 @@
   </si>
   <si>
     <t>no_this_weapon</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有这件装备</t>
   </si>
   <si>
     <t>equip_type_error</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型错误</t>
   </si>
   <si>
     <t>index_error</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>要装备的位置错误</t>
   </si>
   <si>
     <t>equip_is_used</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌已经被使用</t>
   </si>
   <si>
     <t>this_index_have_equip</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有这件装备</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备类型错误</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>要装备的位置错误</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌已经被使用</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>此位置已有装备</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_power</t>
+  </si>
+  <si>
+    <t>战力不足</t>
+  </si>
+  <si>
+    <t>shop_good_unavailable</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店货物未开放</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2031,23 +2079,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2055,13 +2107,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2069,12 +2115,31 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2083,20 +2148,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2123,7 +2183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14978484450819421"/>
+        <fgColor theme="0" tint="-0.14972380748924222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2135,13 +2195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2200,7 +2260,7 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -2212,25 +2272,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -2245,7 +2305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2277,14 +2337,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2578,7 +2641,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2623,20 +2686,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="b">
@@ -2787,7 +2850,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3033,16 +3096,16 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3050,16 +3113,16 @@
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3067,16 +3130,16 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3084,16 +3147,16 @@
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3110,7 +3173,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3118,16 +3181,16 @@
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3171,11 +3234,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
-    </sheetView>
+    <sheetView topLeftCell="A130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4657,6 +4718,50 @@
       </c>
       <c r="C134" s="20" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="15">
+        <v>100132</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A136" s="15">
+        <v>100133</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="15">
+        <v>100134</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="15">
+        <v>100135</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4728,10 +4833,10 @@
         <v>200002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4739,10 +4844,10 @@
         <v>200003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4750,10 +4855,10 @@
         <v>200004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4761,10 +4866,10 @@
         <v>200005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4772,10 +4877,10 @@
         <v>200006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4783,10 +4888,10 @@
         <v>200007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4794,10 +4899,10 @@
         <v>200008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4805,10 +4910,10 @@
         <v>200009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5247,15 +5352,15 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>85</v>
@@ -5269,10 +5374,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -5280,10 +5385,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -5291,10 +5396,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
@@ -5302,10 +5407,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -5313,10 +5418,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -5324,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5335,10 +5440,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5346,10 +5451,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5357,10 +5462,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5368,10 +5473,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5379,10 +5484,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -5390,13 +5495,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21774,10 +21889,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21791,10 +21906,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -21805,7 +21920,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -21813,10 +21928,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21824,10 +21939,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21835,10 +21950,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21846,10 +21961,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21857,10 +21972,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21868,10 +21983,10 @@
         <v>1004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21879,10 +21994,10 @@
         <v>1005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21890,10 +22005,10 @@
         <v>1006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21901,10 +22016,10 @@
         <v>1007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21912,10 +22027,10 @@
         <v>1008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21923,10 +22038,10 @@
         <v>2000</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21934,10 +22049,10 @@
         <v>2001</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21945,7 +22060,7 @@
         <v>2002</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>138</v>
@@ -21956,10 +22071,10 @@
         <v>2003</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21967,10 +22082,10 @@
         <v>2004</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21978,10 +22093,10 @@
         <v>2005</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -21989,10 +22104,10 @@
         <v>2006</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22000,10 +22115,10 @@
         <v>2007</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22011,10 +22126,10 @@
         <v>2008</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22022,10 +22137,10 @@
         <v>2009</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22033,10 +22148,10 @@
         <v>2010</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22044,10 +22159,10 @@
         <v>2011</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22055,10 +22170,10 @@
         <v>2012</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22066,7 +22181,7 @@
         <v>2013</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>176</v>
@@ -22077,10 +22192,10 @@
         <v>2014</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22088,10 +22203,10 @@
         <v>2015</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22099,10 +22214,10 @@
         <v>2016</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22110,7 +22225,7 @@
         <v>2017</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>80</v>
@@ -22121,10 +22236,10 @@
         <v>2018</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22132,10 +22247,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22143,10 +22258,10 @@
         <v>2020</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22154,10 +22269,10 @@
         <v>3001</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22165,10 +22280,10 @@
         <v>3002</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22176,10 +22291,10 @@
         <v>4000</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22187,10 +22302,10 @@
         <v>4001</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22198,10 +22313,10 @@
         <v>4002</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22209,10 +22324,10 @@
         <v>4003</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22220,10 +22335,10 @@
         <v>4004</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22231,10 +22346,10 @@
         <v>4005</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22242,10 +22357,10 @@
         <v>4006</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22253,10 +22368,10 @@
         <v>4007</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22264,10 +22379,10 @@
         <v>4008</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22275,10 +22390,10 @@
         <v>4009</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22286,10 +22401,10 @@
         <v>4010</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22297,10 +22412,10 @@
         <v>4011</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22308,10 +22423,10 @@
         <v>5000</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22319,10 +22434,10 @@
         <v>5001</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22330,10 +22445,10 @@
         <v>5002</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22341,10 +22456,10 @@
         <v>5003</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22352,10 +22467,10 @@
         <v>5004</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22363,10 +22478,10 @@
         <v>5005</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22374,10 +22489,10 @@
         <v>5006</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22385,10 +22500,10 @@
         <v>5007</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22396,10 +22511,10 @@
         <v>5008</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22407,10 +22522,10 @@
         <v>5009</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22418,10 +22533,10 @@
         <v>5010</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22429,10 +22544,10 @@
         <v>6000</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22440,10 +22555,10 @@
         <v>6001</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22451,10 +22566,10 @@
         <v>6002</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22462,10 +22577,10 @@
         <v>6003</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22473,10 +22588,10 @@
         <v>6004</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22484,10 +22599,10 @@
         <v>6005</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22495,10 +22610,10 @@
         <v>6006</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22506,10 +22621,10 @@
         <v>6007</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22517,10 +22632,10 @@
         <v>6008</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22528,10 +22643,10 @@
         <v>6009</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22539,10 +22654,10 @@
         <v>6010</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22550,10 +22665,10 @@
         <v>6011</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22561,10 +22676,10 @@
         <v>6012</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22572,10 +22687,10 @@
         <v>6013</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22583,10 +22698,10 @@
         <v>6014</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22594,10 +22709,10 @@
         <v>6015</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22605,10 +22720,10 @@
         <v>6016</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22616,10 +22731,10 @@
         <v>6017</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22627,10 +22742,10 @@
         <v>6018</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22638,10 +22753,10 @@
         <v>6019</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22649,10 +22764,10 @@
         <v>6020</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22660,10 +22775,10 @@
         <v>6021</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22671,10 +22786,10 @@
         <v>6022</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22682,10 +22797,10 @@
         <v>6023</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22693,10 +22808,10 @@
         <v>6024</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22704,10 +22819,10 @@
         <v>6025</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22715,10 +22830,10 @@
         <v>6026</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22726,10 +22841,10 @@
         <v>7001</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22737,10 +22852,10 @@
         <v>7002</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22748,10 +22863,10 @@
         <v>7003</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22759,10 +22874,10 @@
         <v>7004</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22770,10 +22885,10 @@
         <v>7005</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22781,10 +22896,10 @@
         <v>7006</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22792,10 +22907,10 @@
         <v>7007</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22803,10 +22918,10 @@
         <v>7008</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22814,10 +22929,10 @@
         <v>7009</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22825,10 +22940,10 @@
         <v>7010</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22836,10 +22951,10 @@
         <v>7011</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22847,10 +22962,10 @@
         <v>7012</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22858,10 +22973,10 @@
         <v>7013</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22869,10 +22984,10 @@
         <v>7014</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22880,10 +22995,10 @@
         <v>7015</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22891,13 +23006,13 @@
         <v>7016</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22905,13 +23020,13 @@
         <v>7017</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22919,13 +23034,13 @@
         <v>7018</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22933,13 +23048,13 @@
         <v>7019</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22947,13 +23062,13 @@
         <v>7020</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22961,13 +23076,13 @@
         <v>7021</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22975,13 +23090,13 @@
         <v>7022</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -22989,13 +23104,13 @@
         <v>7023</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -23003,13 +23118,13 @@
         <v>7024</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -23017,13 +23132,13 @@
         <v>7025</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -23031,10 +23146,10 @@
         <v>7026</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -23042,10 +23157,10 @@
         <v>7027</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23053,10 +23168,10 @@
         <v>7028</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23064,10 +23179,10 @@
         <v>7029</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23075,10 +23190,10 @@
         <v>7030</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23086,10 +23201,10 @@
         <v>7031</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23097,10 +23212,10 @@
         <v>7032</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23108,10 +23223,10 @@
         <v>7033</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23119,10 +23234,10 @@
         <v>7034</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23130,10 +23245,10 @@
         <v>7035</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23141,10 +23256,10 @@
         <v>7036</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23152,10 +23267,10 @@
         <v>7037</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23163,10 +23278,10 @@
         <v>7038</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23174,10 +23289,10 @@
         <v>7039</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23185,10 +23300,10 @@
         <v>7040</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23196,10 +23311,10 @@
         <v>7041</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23207,10 +23322,10 @@
         <v>7042</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23218,10 +23333,10 @@
         <v>7043</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23229,10 +23344,10 @@
         <v>7044</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23240,10 +23355,10 @@
         <v>7045</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23251,10 +23366,10 @@
         <v>7046</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23262,10 +23377,10 @@
         <v>7047</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23273,10 +23388,10 @@
         <v>7048</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23284,10 +23399,10 @@
         <v>7049</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23295,10 +23410,10 @@
         <v>7050</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23306,10 +23421,10 @@
         <v>7051</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23317,10 +23432,10 @@
         <v>7052</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23328,10 +23443,10 @@
         <v>7053</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23339,10 +23454,10 @@
         <v>7054</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23350,10 +23465,10 @@
         <v>7055</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23361,10 +23476,10 @@
         <v>7056</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23372,10 +23487,10 @@
         <v>7057</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -23383,15 +23498,37 @@
         <v>7058</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>614</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>7059</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>7060</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>